--- a/bosch wrangled.xlsx
+++ b/bosch wrangled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cerda\Documents\WrWx\Python Files\WranglesPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE92524-B70C-4106-BABC-83E59C56B9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4175ACB4-1193-4D52-A2FC-F1B53FCFDD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="495" windowWidth="26070" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t>15.74 USD</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>758.53 USD</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
     <t>92.24 USD</t>
   </si>
   <si>
-    <t>5lb</t>
-  </si>
-  <si>
     <t>5 lb</t>
   </si>
   <si>
@@ -404,6 +398,12 @@
   </si>
   <si>
     <t>Family2</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>VOLT</t>
   </si>
 </sst>
 </file>
@@ -531,6 +531,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -582,8 +584,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -649,9 +649,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:R11">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SKU"/>
-    <tableColumn id="19" xr3:uid="{3AEF2B56-AF63-4F9E-97F3-06959DEEDAD0}" name="family" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{296431EE-1B5E-4419-91E7-C693FC8FD5E5}" name="categories" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{E911FBD2-5E9E-41BE-918F-574A5E6949CE}" name="groups" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{3AEF2B56-AF63-4F9E-97F3-06959DEEDAD0}" name="family" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{296431EE-1B5E-4419-91E7-C693FC8FD5E5}" name="categories" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{E911FBD2-5E9E-41BE-918F-574A5E6949CE}" name="groups" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Manufacturer"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BOSCH DESCRIPTION"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Attributes"/>
@@ -660,12 +660,12 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tool Weight"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tool Length"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Voltage"/>
-    <tableColumn id="16" xr3:uid="{9F0F916A-25B4-4489-9343-C14910BDEFB9}" name="Current Type" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{9F0F916A-25B4-4489-9343-C14910BDEFB9}" name="Current Type" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="BOSCH CATEGORY"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Item"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Family2"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Category"/>
-    <tableColumn id="18" xr3:uid="{0581FE27-2280-4A5C-95DF-B07FF7858EBF}" name="USD" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{0581FE27-2280-4A5C-95DF-B07FF7858EBF}" name="Price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -869,7 +869,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="536" row="5">
+  <wetp:taskpane dockstate="right" visibility="0" width="457" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -920,13 +920,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1000,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>94</v>
@@ -1038,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1059,7 +1059,7 @@
         <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>97</v>
@@ -1080,7 +1080,7 @@
         <v>27</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1115,10 +1115,10 @@
         <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>94</v>
@@ -1136,7 +1136,7 @@
         <v>27</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1168,13 +1168,13 @@
         <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>94</v>
@@ -1192,7 +1192,7 @@
         <v>40</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1224,13 +1224,13 @@
         <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>94</v>
@@ -1248,7 +1248,7 @@
         <v>40</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1302,7 +1302,7 @@
         <v>27</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1358,7 +1358,7 @@
         <v>59</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1414,7 +1414,7 @@
         <v>59</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -1446,13 +1446,13 @@
         <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>95</v>
@@ -1470,7 +1470,7 @@
         <v>40</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1498,13 +1498,13 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>95</v>
@@ -1522,7 +1522,7 @@
         <v>40</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2521,7 +2521,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,7 +2569,7 @@
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/bosch wrangled.xlsx
+++ b/bosch wrangled.xlsx
@@ -5,19 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cerda\Documents\WrWx\Python Files\WranglesPy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cerdamario13\Documents\Python Files\WranglesPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4175ACB4-1193-4D52-A2FC-F1B53FCFDD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B82A4-1CFC-46BB-8BD9-4A4C8C8D5D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="495" windowWidth="26070" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27435" yWindow="570" windowWidth="27255" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Unit Abbr to Full Name" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Unit Abbr to Full Name" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjKTeSJc6Pd4XEDS5JJ3ybBh4fMUQ=="/>
     </ext>
@@ -26,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="131">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -82,9 +94,6 @@
     <t>Backing Pad || 0.969</t>
   </si>
   <si>
-    <t>Power Tools</t>
-  </si>
-  <si>
     <t>Consumables &gt;&gt; Pads</t>
   </si>
   <si>
@@ -352,36 +361,9 @@
     <t>92.24 USD</t>
   </si>
   <si>
-    <t>5 lb</t>
-  </si>
-  <si>
-    <t>13 in</t>
-  </si>
-  <si>
     <t>14 in</t>
   </si>
   <si>
-    <t>15 in</t>
-  </si>
-  <si>
-    <t>16 in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 V </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 V </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 V </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 V </t>
-  </si>
-  <si>
-    <t xml:space="preserve">121 V </t>
-  </si>
-  <si>
     <t xml:space="preserve">122 V </t>
   </si>
   <si>
@@ -397,13 +379,58 @@
     <t>Group_1</t>
   </si>
   <si>
-    <t>Family2</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
     <t>VOLT</t>
+  </si>
+  <si>
+    <t>power_tools</t>
+  </si>
+  <si>
+    <t>bosch_737</t>
+  </si>
+  <si>
+    <t>bosch_228</t>
+  </si>
+  <si>
+    <t>bosch_551</t>
+  </si>
+  <si>
+    <t>bosch_285</t>
+  </si>
+  <si>
+    <t>bosch_613</t>
+  </si>
+  <si>
+    <t>bosch_054</t>
+  </si>
+  <si>
+    <t>bosch_486</t>
+  </si>
+  <si>
+    <t>bosch_01, bosch_486</t>
+  </si>
+  <si>
+    <t>bosch_01, bosch_228</t>
+  </si>
+  <si>
+    <t>bosch_01, bosch_551</t>
+  </si>
+  <si>
+    <t>bosch_01, bosch_285</t>
+  </si>
+  <si>
+    <t>bosch_01, bosch_613</t>
+  </si>
+  <si>
+    <t>bosch_01, bosch_054</t>
+  </si>
+  <si>
+    <t>bosch_0101, bosch_737</t>
+  </si>
+  <si>
+    <t>bosch_01, bosch_0101, bosch_737</t>
   </si>
 </sst>
 </file>
@@ -447,12 +474,24 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor rgb="FFDBE5F1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -495,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -510,6 +549,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +578,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -550,6 +595,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -646,13 +693,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:R11">
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:Q11">
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SKU"/>
-    <tableColumn id="19" xr3:uid="{3AEF2B56-AF63-4F9E-97F3-06959DEEDAD0}" name="family" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{296431EE-1B5E-4419-91E7-C693FC8FD5E5}" name="categories" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{E911FBD2-5E9E-41BE-918F-574A5E6949CE}" name="groups" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Manufacturer"/>
+    <tableColumn id="19" xr3:uid="{3AEF2B56-AF63-4F9E-97F3-06959DEEDAD0}" name="Manufacturer" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{62667869-0828-4375-A4FB-27017A2B20A1}" name="categories" dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{E911FBD2-5E9E-41BE-918F-574A5E6949CE}" name="groups" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BOSCH DESCRIPTION"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Attributes"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Blade Dia."/>
@@ -660,12 +706,12 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tool Weight"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tool Length"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Voltage"/>
-    <tableColumn id="16" xr3:uid="{9F0F916A-25B4-4489-9343-C14910BDEFB9}" name="Current Type" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{9F0F916A-25B4-4489-9343-C14910BDEFB9}" name="Current Type" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="BOSCH CATEGORY"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Item"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Family2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="family"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Category"/>
-    <tableColumn id="18" xr3:uid="{0581FE27-2280-4A5C-95DF-B07FF7858EBF}" name="Price" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{0581FE27-2280-4A5C-95DF-B07FF7858EBF}" name="Price" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -869,8 +915,11 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="457" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="556" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="546" row="7">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
@@ -887,27 +936,38 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{C13A00A9-7CA4-4A59-A786-33EC042A5433}">
+  <we:reference id="d170824e-af8f-4b98-8e96-baa444872b85" version="1.0.0.0" store="\\DESKTOP-OR26PFM\Users\cerdamario13\Documents\Excel Add-Ins" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1000"/>
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="1" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="98.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="38.7109375" customWidth="1"/>
     <col min="15" max="15" width="29" customWidth="1"/>
     <col min="16" max="16" width="35.42578125" customWidth="1"/>
     <col min="17" max="17" width="29.28515625" customWidth="1"/>
@@ -915,301 +975,264 @@
     <col min="19" max="29" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
+      <c r="C2" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
+      <c r="C3" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
+      <c r="C4" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>100</v>
+      <c r="Q4" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
+      <c r="C5" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
+      <c r="C6" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>42</v>
@@ -1220,309 +1243,273 @@
       <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>102</v>
+      <c r="Q6" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
+      <c r="C7" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
+      <c r="C8" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
+      <c r="C9" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="O9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>105</v>
+      <c r="Q9" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
+      <c r="C10" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
+      <c r="C11" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>107</v>
+        <v>39</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2516,6 +2503,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC00492-525E-4010-AD8C-E3167774F027}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A438A2E7-CC8B-4395-BCFB-95B4FD2B24D2}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2531,45 +2594,45 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
         <v>88</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
         <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
